--- a/data/payables.xlsx
+++ b/data/payables.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -65,6 +65,9 @@
     <t>PaymentScheduledDate</t>
   </si>
   <si>
+    <t>approvalStatus</t>
+  </si>
+  <si>
     <t>123463</t>
   </si>
   <si>
@@ -74,40 +77,94 @@
     <t>R10001</t>
   </si>
   <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
+    <t>test bill</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>NEFT</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>R10002</t>
+  </si>
+  <si>
+    <t>test bill 3</t>
+  </si>
+  <si>
+    <t>2026-02-28</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>new test bill</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>54321</t>
+  </si>
+  <si>
+    <t>Muthaiya</t>
+  </si>
+  <si>
+    <t>R50001</t>
+  </si>
+  <si>
+    <t>test tamil nade</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>tes water bill</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
   </si>
   <si>
     <t>Bank Transfer</t>
   </si>
   <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>R50001</t>
-  </si>
-  <si>
-    <t>Muthaiya</t>
-  </si>
-  <si>
-    <t>BILL0001</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>R10002</t>
-  </si>
-  <si>
-    <t>BillTest</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
+    <t>test new bill cache</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
+  </si>
+  <si>
+    <t>new cache test</t>
+  </si>
+  <si>
+    <t>new test test</t>
+  </si>
+  <si>
+    <t>new new</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-02-14</t>
+  </si>
+  <si>
+    <t>yuyu</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
   </si>
   <si>
     <t>Cash</t>
@@ -180,12 +237,6 @@
   </si>
   <si>
     <t>KSEB</t>
-  </si>
-  <si>
-    <t>54321</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
   </si>
   <si>
     <t>2030-01-01</t>
@@ -589,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
@@ -615,7 +666,7 @@
     <col min="17" max="16384" width="8.83984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.4" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,100 +715,317 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1">
+        <v>560</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1">
+        <v>250</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45000</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1">
+        <v>78000</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="H8" s="1">
+        <v>25000</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1">
+        <v>78000</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1">
+        <v>120</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1">
-        <v>35000</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1">
-        <v>250</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="1"/>
+      <c r="Q10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1">
+        <v>560</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -770,7 +1038,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
@@ -798,31 +1066,31 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -831,30 +1099,30 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="14.4" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="2">
         <v>45659</v>
@@ -872,7 +1140,7 @@
         <v>0.05</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
@@ -881,30 +1149,30 @@
         <v>78000</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
         <v>45659</v>
@@ -916,13 +1184,13 @@
         <v>45000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
@@ -931,48 +1199,48 @@
         <v>560</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>42737</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G4" s="3">
         <v>56000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1">
         <v>2</v>
@@ -981,51 +1249,51 @@
         <v>25445</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="L5" s="1">
         <v>35000</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
